--- a/data/old_posteriors/no_elementary_skills/simple_model/noleak/questions-skill-model1a_noleak.xlsx
+++ b/data/old_posteriors/no_elementary_skills/simple_model/noleak/questions-skill-model1a_noleak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/SoftCOM(original)/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/old_posteriors/no_elementary_skills/simple_model/noleak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F4266-1E19-734D-8AD2-6920319F91D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370CACB8-74A1-F34E-A984-C0BF6B9C8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="3200" windowWidth="29040" windowHeight="16000" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -351,6 +351,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -362,15 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +701,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="M110" sqref="M110:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,32 +714,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="21">
         <v>0</v>
       </c>
@@ -770,9 +770,9 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
@@ -803,9 +803,9 @@
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="25">
         <v>2</v>
       </c>
       <c r="B14" s="4">
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <v>3</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="5">
         <v>4</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="5">
         <v>5</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="5">
         <v>6</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="5">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="5">
         <v>8</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="6">
         <v>9</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="26">
         <v>3</v>
       </c>
       <c r="B23" s="5">
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="5">
         <v>4</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="5">
         <v>5</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="5">
         <v>6</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="5">
         <v>7</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="5">
         <v>8</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="5">
         <v>9</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="25">
         <v>4</v>
       </c>
       <c r="B32" s="4">
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="5">
         <v>2</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="5">
         <v>3</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="5">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="5">
         <v>5</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5">
         <v>6</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="5">
         <v>7</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="5">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="6">
         <v>9</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="26">
         <v>5</v>
       </c>
       <c r="B41" s="5">
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="5">
         <v>4</v>
       </c>
@@ -2406,7 +2406,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="5">
         <v>5</v>
       </c>
@@ -2445,7 +2445,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="5">
         <v>6</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="5">
         <v>7</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="5">
         <v>8</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="5">
         <v>9</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+      <c r="A50" s="25">
         <v>6</v>
       </c>
       <c r="B50" s="4">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -2681,7 +2681,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="5">
         <v>3</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="5">
         <v>4</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="5">
         <v>5</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="5">
         <v>6</v>
       </c>
@@ -2837,7 +2837,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="5">
         <v>7</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="5">
         <v>8</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="6">
         <v>9</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="29">
+      <c r="A59" s="26">
         <v>7</v>
       </c>
       <c r="B59" s="5">
@@ -2995,7 +2995,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="5">
         <v>2</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="5">
         <v>3</v>
       </c>
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="5">
         <v>4</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="5">
         <v>5</v>
       </c>
@@ -3151,7 +3151,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="5">
         <v>6</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="5">
         <v>7</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="29"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="5">
         <v>8</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="5">
         <v>9</v>
       </c>
@@ -3307,7 +3307,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
+      <c r="A68" s="25">
         <v>8</v>
       </c>
       <c r="B68" s="4">
@@ -3348,7 +3348,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="5">
         <v>2</v>
       </c>
@@ -3387,7 +3387,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="5">
         <v>3</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="5">
         <v>4</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="5">
         <v>5</v>
       </c>
@@ -3504,7 +3504,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="5">
         <v>6</v>
       </c>
@@ -3543,7 +3543,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="5">
         <v>7</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="5">
         <v>8</v>
       </c>
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="31"/>
+      <c r="A76" s="27"/>
       <c r="B76" s="6">
         <v>9</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="29">
+      <c r="A77" s="26">
         <v>9</v>
       </c>
       <c r="B77" s="5">
@@ -3701,7 +3701,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="5">
         <v>2</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="29"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="5">
         <v>3</v>
       </c>
@@ -3779,7 +3779,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="5"/>
       <c r="C80" s="3" t="s">
         <v>6</v>
@@ -3793,12 +3793,10 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="19">
-        <v>0.1</v>
-      </c>
+      <c r="M80" s="19"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -3812,12 +3810,10 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="19">
-        <v>0.1</v>
-      </c>
+      <c r="M81" s="19"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="5"/>
       <c r="C82" s="3" t="s">
         <v>8</v>
@@ -3831,12 +3827,10 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="19">
-        <v>0.1</v>
-      </c>
+      <c r="M82" s="19"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="5">
         <v>7</v>
       </c>
@@ -3875,7 +3869,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="5">
         <v>8</v>
       </c>
@@ -3914,7 +3908,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="29"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="5">
         <v>9</v>
       </c>
@@ -3953,7 +3947,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="30">
+      <c r="A86" s="25">
         <v>10</v>
       </c>
       <c r="B86" s="4">
@@ -3994,7 +3988,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="29"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="5">
         <v>2</v>
       </c>
@@ -4033,7 +4027,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="5">
         <v>3</v>
       </c>
@@ -4072,7 +4066,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="5">
         <v>4</v>
       </c>
@@ -4111,7 +4105,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="5">
         <v>5</v>
       </c>
@@ -4150,7 +4144,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="5">
         <v>6</v>
       </c>
@@ -4189,7 +4183,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="29"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="5">
         <v>7</v>
       </c>
@@ -4228,7 +4222,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="5">
         <v>8</v>
       </c>
@@ -4267,7 +4261,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
+      <c r="A94" s="27"/>
       <c r="B94" s="6">
         <v>9</v>
       </c>
@@ -4306,7 +4300,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="29">
+      <c r="A95" s="26">
         <v>11</v>
       </c>
       <c r="B95" s="5">
@@ -4347,7 +4341,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
+      <c r="A96" s="26"/>
       <c r="B96" s="5">
         <v>2</v>
       </c>
@@ -4386,7 +4380,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="5">
         <v>3</v>
       </c>
@@ -4425,7 +4419,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="5">
         <v>4</v>
       </c>
@@ -4464,7 +4458,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="5">
         <v>5</v>
       </c>
@@ -4503,7 +4497,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="29"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="5">
         <v>6</v>
       </c>
@@ -4542,7 +4536,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="29"/>
+      <c r="A101" s="26"/>
       <c r="B101" s="5">
         <v>7</v>
       </c>
@@ -4581,7 +4575,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="29"/>
+      <c r="A102" s="26"/>
       <c r="B102" s="5">
         <v>8</v>
       </c>
@@ -4620,7 +4614,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="29"/>
+      <c r="A103" s="26"/>
       <c r="B103" s="5">
         <v>9</v>
       </c>
@@ -4659,7 +4653,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="30">
+      <c r="A104" s="25">
         <v>12</v>
       </c>
       <c r="B104" s="4">
@@ -4700,7 +4694,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="29"/>
+      <c r="A105" s="26"/>
       <c r="B105" s="5">
         <v>2</v>
       </c>
@@ -4739,7 +4733,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="29"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="5">
         <v>3</v>
       </c>
@@ -4778,7 +4772,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="29"/>
+      <c r="A107" s="26"/>
       <c r="B107" s="5">
         <v>4</v>
       </c>
@@ -4817,7 +4811,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="29"/>
+      <c r="A108" s="26"/>
       <c r="B108" s="5">
         <v>5</v>
       </c>
@@ -4856,7 +4850,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="29"/>
+      <c r="A109" s="26"/>
       <c r="B109" s="5">
         <v>6</v>
       </c>
@@ -4895,7 +4889,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="29"/>
+      <c r="A110" s="26"/>
       <c r="B110" s="5"/>
       <c r="C110" s="15" t="s">
         <v>9</v>
@@ -4909,12 +4903,10 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
-      <c r="M110" s="19">
-        <v>0.1</v>
-      </c>
+      <c r="M110" s="19"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="29"/>
+      <c r="A111" s="26"/>
       <c r="B111" s="5"/>
       <c r="C111" s="15" t="s">
         <v>10</v>
@@ -4928,12 +4920,10 @@
       <c r="J111" s="12"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="19">
-        <v>0.1</v>
-      </c>
+      <c r="M111" s="19"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="31"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="6"/>
       <c r="C112" s="16" t="s">
         <v>11</v>
@@ -4947,28 +4937,26 @@
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
       <c r="L112" s="10"/>
-      <c r="M112" s="19">
-        <v>0.1</v>
-      </c>
+      <c r="M112" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="A95:A103"/>
-    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A5:A13"/>
     <mergeCell ref="A59:A67"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="A41:A49"/>
     <mergeCell ref="A50:A58"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A104:A112"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:L112">
     <cfRule type="colorScale" priority="3">
